--- a/Environmental_datasets/Environmental databases.xlsx
+++ b/Environmental_datasets/Environmental databases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmersonEmmerson/Documents/Master's/C_forecasting_NL/Environmental_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD9133-B7FB-094F-A5AD-6756D4B60905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D554514-687D-544F-A389-A6834DF1F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34660" yWindow="-1440" windowWidth="34480" windowHeight="20900" activeTab="4" xr2:uid="{9EEE58CE-D387-B14C-ABB0-8398CF6D0276}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" activeTab="4" xr2:uid="{9EEE58CE-D387-B14C-ABB0-8398CF6D0276}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="Variables (long list)" sheetId="4" r:id="rId3"/>
     <sheet name="Variable download info" sheetId="5" r:id="rId4"/>
     <sheet name="Final variable info" sheetId="10" r:id="rId5"/>
-    <sheet name="EVI_cloud_txt_extract" sheetId="9" r:id="rId6"/>
-    <sheet name="USGS_EVI_scenes" sheetId="6" r:id="rId7"/>
-    <sheet name="soil.org" sheetId="7" r:id="rId8"/>
+    <sheet name="EVI options" sheetId="12" r:id="rId6"/>
+    <sheet name="canopy cover options" sheetId="11" r:id="rId7"/>
+    <sheet name="EVI_cloud_txt_extract" sheetId="9" r:id="rId8"/>
+    <sheet name="USGS_EVI_scenes" sheetId="6" r:id="rId9"/>
+    <sheet name="soil.org" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EVI_cloud_txt_extract!$A$1:$M$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">USGS_EVI_scenes!$A$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">EVI_cloud_txt_extract!$A$1:$M$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Final variable info'!$A$1:$AB$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">USGS_EVI_scenes!$A$1:$B$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,7 +140,7 @@
     average throughout summer? Or just closest to sampling</t>
       </text>
     </comment>
-    <comment ref="L10" authorId="3" shapeId="0" xr:uid="{D5B566A2-8A36-B04E-9888-2034F3C55E28}">
+    <comment ref="L11" authorId="3" shapeId="0" xr:uid="{D5B566A2-8A36-B04E-9888-2034F3C55E28}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -147,7 +150,7 @@
 select variable of interest</t>
       </text>
     </comment>
-    <comment ref="R16" authorId="4" shapeId="0" xr:uid="{43E56F68-DF3B-294C-8EDB-96B6F73BD509}">
+    <comment ref="R17" authorId="4" shapeId="0" xr:uid="{43E56F68-DF3B-294C-8EDB-96B6F73BD509}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -155,7 +158,7 @@
     may need to temporarily because ANUCLIM may not be ready</t>
       </text>
     </comment>
-    <comment ref="B17" authorId="5" shapeId="0" xr:uid="{89B6A541-705C-9340-931C-01A5E618F75B}">
+    <comment ref="B18" authorId="5" shapeId="0" xr:uid="{89B6A541-705C-9340-931C-01A5E618F75B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,10 +176,11 @@
     <author>tc={A9CE06D5-8706-7744-8D70-09550A513AFA}</author>
     <author>tc={BF951F88-C1CA-4546-B609-B425C4679732}</author>
     <author>tc={3E089777-BC5E-AD41-89AF-45103AD1EE3C}</author>
+    <author>tc={55C7BF35-5751-9948-B7AB-3284501D7FF4}</author>
     <author>tc={9A21D50E-BE12-9748-BC5A-B46EDA774613}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A9CE06D5-8706-7744-8D70-09550A513AFA}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A9CE06D5-8706-7744-8D70-09550A513AFA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +188,7 @@
     only for GM &amp; TN with buffers</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{BF951F88-C1CA-4546-B609-B425C4679732}">
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{BF951F88-C1CA-4546-B609-B425C4679732}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +196,7 @@
     mostly only GM and TN w buffer</t>
       </text>
     </comment>
-    <comment ref="L5" authorId="2" shapeId="0" xr:uid="{3E089777-BC5E-AD41-89AF-45103AD1EE3C}">
+    <comment ref="M9" authorId="2" shapeId="0" xr:uid="{3E089777-BC5E-AD41-89AF-45103AD1EE3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +206,17 @@
 select variable of interest</t>
       </text>
     </comment>
-    <comment ref="B11" authorId="3" shapeId="0" xr:uid="{9A21D50E-BE12-9748-BC5A-B46EDA774613}">
+    <comment ref="M11" authorId="3" shapeId="0" xr:uid="{55C7BF35-5751-9948-B7AB-3284501D7FF4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    can drag and drop to QGIS
+select .nc
+select variable of interest</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="4" shapeId="0" xr:uid="{9A21D50E-BE12-9748-BC5A-B46EDA774613}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -257,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="877">
   <si>
     <t>Resource/Database</t>
   </si>
@@ -2845,9 +2859,6 @@
     <t>Use to deliniate new sites?</t>
   </si>
   <si>
-    <t xml:space="preserve">Forest fires </t>
-  </si>
-  <si>
     <t>Parks</t>
   </si>
   <si>
@@ -2860,7 +2871,171 @@
     <t>Similar to prov's</t>
   </si>
   <si>
-    <t>Trust more than prov's</t>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Above ground and below ground biomass carbon density</t>
+  </si>
+  <si>
+    <t>Global Aboveground and Belowground Biomass Carbon Density Maps for the Year 2010</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>300 m</t>
+  </si>
+  <si>
+    <t>Carbon map and uncertainty in forested areas of Canada, 250m spatial resolution</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>Direct impact on C</t>
+  </si>
+  <si>
+    <t>Indirect impacts on C</t>
+  </si>
+  <si>
+    <t>maintaining physiological function across a wider temperature range during water-limited periods, woody plants assimilated larger amounts of carbon</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>when disturbance occurred</t>
+  </si>
+  <si>
+    <t>Moose</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Patch size</t>
+  </si>
+  <si>
+    <t>Time since</t>
+  </si>
+  <si>
+    <t>(Van de Water et al. 2002, Qin et al. 2016, Cao et al. 2020)</t>
+  </si>
+  <si>
+    <t>impacts amount of sun -&gt; biological rates
+soil temp and water content affects leaf stoichiometry</t>
+  </si>
+  <si>
+    <t>060W_52N_forest_age_2020, 060W_50N_forest_age_2020, 058W_52N_forest_age_2020, 058W_50N_forest_age_2020, 055W_50N_forest_age_2020</t>
+  </si>
+  <si>
+    <t>GEDI L3 Gridded Land Surface Metrics, Version 2</t>
+  </si>
+  <si>
+    <t>1km</t>
+  </si>
+  <si>
+    <t>Global Forest Cover Change (GFCC) Tree Cover Multi-Year Global 30 m</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>1984 - 2020</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>good spatial resolution
+recent</t>
+  </si>
+  <si>
+    <t>missing slice off coast of terra nova</t>
+  </si>
+  <si>
+    <t>is in 25m bubbles that don’t overlap entire surface</t>
+  </si>
+  <si>
+    <t>recent and gridded</t>
+  </si>
+  <si>
+    <t>large spatial resolution</t>
+  </si>
+  <si>
+    <t>2000, 2005, 2010, 2015</t>
+  </si>
+  <si>
+    <t>good spatial resolution</t>
+  </si>
+  <si>
+    <t>not as recent</t>
+  </si>
+  <si>
+    <t>MuSLI Multi-Source Land Surface Phenology Yearly North America 30</t>
+  </si>
+  <si>
+    <t>Error download option?</t>
+  </si>
+  <si>
+    <t>5 yrs</t>
+  </si>
+  <si>
+    <t>Trust more than prov's ***but missing swath along coast of TN</t>
+  </si>
+  <si>
+    <t>NDVI</t>
+  </si>
+  <si>
+    <t>Global Web-Enabled Landsat Data Annual (GWELDYR) Version 3.1 </t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Peak Season Leaf Area Index of Canada from Medium Resolution Satellite Imagery</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>veg cover</t>
+  </si>
+  <si>
+    <t>Peak Season Fraction of Vegetation Cover of Canada from Medium Resolution Satellite Imagery</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Use in forecast</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>parks</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Global Land Cover Mapping and Estimation Yearly 30 m</t>
+  </si>
+  <si>
+    <t>2001 - 2019</t>
+  </si>
+  <si>
+    <t>2016 - 2019</t>
   </si>
 </sst>
 </file>
@@ -3001,7 +3176,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3119,12 +3294,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3505,7 +3674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3843,20 +4012,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3886,15 +4047,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="39">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3918,7 +4076,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA8B0"/>
+          <bgColor rgb="FFFFD990"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC1BDCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3946,6 +4118,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -3953,7 +4132,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC1BDCF"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4002,6 +4188,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA8B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA8B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -4023,7 +4244,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFD990"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4037,7 +4272,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFD990"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC1BDCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD990"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4066,20 +4329,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD990"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4447,15 +4696,15 @@
   <threadedComment ref="I9" dT="2023-01-27T14:49:13.43" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{95E4DD24-1AA6-E041-ADF2-3E4D02E8E658}">
     <text>average throughout summer? Or just closest to sampling</text>
   </threadedComment>
-  <threadedComment ref="L10" dT="2023-01-31T14:06:13.06" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{D5B566A2-8A36-B04E-9888-2034F3C55E28}">
+  <threadedComment ref="L11" dT="2023-01-31T14:06:13.06" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{D5B566A2-8A36-B04E-9888-2034F3C55E28}">
     <text>can drag and drop to QGIS
 select .nc
 select variable of interest</text>
   </threadedComment>
-  <threadedComment ref="R16" dT="2023-01-31T16:44:34.11" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{43E56F68-DF3B-294C-8EDB-96B6F73BD509}">
+  <threadedComment ref="R17" dT="2023-01-31T16:44:34.11" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{43E56F68-DF3B-294C-8EDB-96B6F73BD509}">
     <text>may need to temporarily because ANUCLIM may not be ready</text>
   </threadedComment>
-  <threadedComment ref="B17" dT="2023-01-31T15:09:51.97" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{89B6A541-705C-9340-931C-01A5E618F75B}">
+  <threadedComment ref="B18" dT="2023-01-31T15:09:51.97" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{89B6A541-705C-9340-931C-01A5E618F75B}">
     <text>I think ANUCLM better because goes further back</text>
   </threadedComment>
 </ThreadedComments>
@@ -4463,18 +4712,23 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J1" dT="2023-01-27T14:54:08.52" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{A9CE06D5-8706-7744-8D70-09550A513AFA}">
+  <threadedComment ref="K1" dT="2023-01-27T14:54:08.52" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{A9CE06D5-8706-7744-8D70-09550A513AFA}">
     <text>only for GM &amp; TN with buffers</text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2023-01-31T16:54:08.32" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{BF951F88-C1CA-4546-B609-B425C4679732}">
+  <threadedComment ref="S1" dT="2023-01-31T16:54:08.32" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{BF951F88-C1CA-4546-B609-B425C4679732}">
     <text>mostly only GM and TN w buffer</text>
   </threadedComment>
-  <threadedComment ref="L5" dT="2023-01-31T14:06:13.06" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{3E089777-BC5E-AD41-89AF-45103AD1EE3C}">
+  <threadedComment ref="M9" dT="2023-01-31T14:06:13.06" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{3E089777-BC5E-AD41-89AF-45103AD1EE3C}">
     <text>can drag and drop to QGIS
 select .nc
 select variable of interest</text>
   </threadedComment>
-  <threadedComment ref="B11" dT="2023-01-31T15:09:51.97" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{9A21D50E-BE12-9748-BC5A-B46EDA774613}">
+  <threadedComment ref="M11" dT="2023-01-31T14:06:13.06" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{55C7BF35-5751-9948-B7AB-3284501D7FF4}">
+    <text>can drag and drop to QGIS
+select .nc
+select variable of interest</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2023-01-31T15:09:51.97" personId="{39B3D080-1E90-C842-9DF2-CF4D7048363F}" id="{9A21D50E-BE12-9748-BC5A-B46EDA774613}">
     <text>I think ANUCLM better because goes further back</text>
   </threadedComment>
 </ThreadedComments>
@@ -4496,7 +4750,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="16"/>
@@ -5048,18 +5302,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E090B32D-70A5-2149-A1B7-65E5987A0F9B}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="141"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" t="str">
+        <f>B2&amp;".map"</f>
+        <v>bdod.map</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"https://maps.isric.org/mapserv?map=/map/"&amp;D2</f>
+        <v>https://maps.isric.org/mapserv?map=/map/bdod.map</v>
+      </c>
+      <c r="H2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="0">B3&amp;".map"</f>
+        <v>soc.map</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="1">"https://maps.isric.org/mapserv?map=/map/"&amp;D3</f>
+        <v>https://maps.isric.org/mapserv?map=/map/soc.map</v>
+      </c>
+      <c r="H3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ocs.map</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.isric.org/mapserv?map=/map/ocs.map</v>
+      </c>
+      <c r="H4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ocd.map</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.isric.org/mapserv?map=/map/ocd.map</v>
+      </c>
+      <c r="H5" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>nitrogen.map</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.isric.org/mapserv?map=/map/nitrogen.map</v>
+      </c>
+      <c r="H6" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="H7" t="s">
+        <v>579</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="H8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17">
+      <c r="J15" s="113"/>
+      <c r="K15" s="117"/>
+    </row>
+    <row r="17" spans="10:10" ht="17">
+      <c r="J17" s="114"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="116"/>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1194E792-5E87-AD45-9D02-CDD373EDE6D4}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="75.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.1640625" style="7" customWidth="1"/>
     <col min="3" max="4" width="64.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="30.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -5541,9 +5999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5651BE44-E033-A741-8310-2B47115ACEA4}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5565,70 +6023,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="63" customFormat="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="135" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="135" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="133" t="s">
         <v>368</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="133" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="133" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="135" t="s">
+      <c r="K1" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
+      <c r="L1" s="133"/>
+      <c r="M1" s="133" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="135" t="s">
+      <c r="N1" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="135" t="s">
+      <c r="O1" s="133" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="63" customFormat="1" ht="86" thickBot="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="135"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="133"/>
       <c r="K2" s="31" t="s">
         <v>338</v>
       </c>
       <c r="L2" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
     </row>
     <row r="3" spans="1:18" s="80" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="64" t="s">
@@ -5662,13 +6120,13 @@
       <c r="E4" s="35">
         <v>2021</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="136" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="141" t="s">
+      <c r="J4" s="139" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5685,11 +6143,11 @@
       <c r="E5" s="35">
         <v>2021</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="136"/>
       <c r="I5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="141"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="1:18" ht="34">
       <c r="A6" s="57" t="s">
@@ -5704,11 +6162,11 @@
       <c r="E6" s="35">
         <v>2021</v>
       </c>
-      <c r="H6" s="138"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="141"/>
+      <c r="J6" s="139"/>
     </row>
     <row r="7" spans="1:18" ht="102">
       <c r="A7" s="59" t="s">
@@ -6394,17 +6852,17 @@
       <c r="J27" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="L27" s="135" t="s">
+      <c r="L27" s="133" t="s">
         <v>298</v>
       </c>
-      <c r="M27" s="135" t="s">
+      <c r="M27" s="133" t="s">
         <v>326</v>
       </c>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
     </row>
     <row r="28" spans="1:18" ht="51">
       <c r="B28" s="32" t="s">
@@ -6428,11 +6886,11 @@
       <c r="J28" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
     </row>
     <row r="29" spans="1:18" ht="51">
       <c r="B29" s="32" t="s">
@@ -6447,11 +6905,11 @@
       <c r="I29" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
     </row>
     <row r="30" spans="1:18" ht="34">
       <c r="B30" s="32" t="s">
@@ -6466,11 +6924,11 @@
       <c r="I30" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
     </row>
     <row r="31" spans="1:18" ht="68">
       <c r="A31" s="59" t="s">
@@ -6497,16 +6955,16 @@
       <c r="J31" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="K31" s="135" t="s">
+      <c r="K31" s="133" t="s">
         <v>347</v>
       </c>
-      <c r="L31" s="135" t="s">
+      <c r="L31" s="133" t="s">
         <v>298</v>
       </c>
-      <c r="M31" s="135" t="s">
+      <c r="M31" s="133" t="s">
         <v>304</v>
       </c>
-      <c r="N31" s="135"/>
+      <c r="N31" s="133"/>
     </row>
     <row r="32" spans="1:18" ht="51">
       <c r="B32" s="32" t="s">
@@ -6527,10 +6985,10 @@
       <c r="I32" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
     </row>
     <row r="33" spans="1:18" ht="51">
       <c r="A33" s="59" t="s">
@@ -7221,17 +7679,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L27:L30"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="A1:A2"/>
@@ -7246,6 +7693,17 @@
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O27:O30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -7258,1418 +7716,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F487AF0-5C57-A443-979D-79FDCB7DF6BB}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X11" sqref="X11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="30" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="48.5" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="30" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="30" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="10.83203125" style="30" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="30" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="30" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="30" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="127" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="106" customFormat="1" ht="68">
-      <c r="A1" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="108" t="s">
-        <v>810</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="106" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="106" t="s">
-        <v>399</v>
-      </c>
-      <c r="I1" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="J1" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="K1" s="106" t="s">
-        <v>373</v>
-      </c>
-      <c r="L1" s="106" t="s">
-        <v>371</v>
-      </c>
-      <c r="M1" s="106" t="s">
-        <v>372</v>
-      </c>
-      <c r="N1" s="106" t="s">
-        <v>486</v>
-      </c>
-      <c r="O1" s="106" t="s">
-        <v>483</v>
-      </c>
-      <c r="P1" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q1" s="106" t="s">
-        <v>374</v>
-      </c>
-      <c r="R1" s="106" t="s">
-        <v>482</v>
-      </c>
-      <c r="S1" s="106" t="s">
-        <v>584</v>
-      </c>
-      <c r="T1" s="126" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="68">
-      <c r="A2" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="30" t="str">
-        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:B$52,2,)</f>
-        <v>Global Land Cover Mapping and Estimation Yearly 30 m V001</v>
-      </c>
-      <c r="C2" s="109" t="s">
-        <v>395</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="107" t="str">
-        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F2" s="107">
-        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>2001</v>
-      </c>
-      <c r="G2" s="107">
-        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H2" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" s="107">
-        <v>2019</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="K2" s="30">
-        <v>4</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="M2" s="30" t="str">
-        <f>IF(OR(L2 =".tif", L2=".nc"), "No", IF(L2 = ".hdf", "Yes", "?"))</f>
-        <v>No</v>
-      </c>
-      <c r="N2" s="30">
-        <v>100</v>
-      </c>
-      <c r="O2" s="30">
-        <f>N2*K2</f>
-        <v>400</v>
-      </c>
-      <c r="P2" s="30">
-        <v>8.9</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="51" hidden="1">
-      <c r="A3" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="30" t="str">
-        <f>VLOOKUP(A3,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>GEDI L2B Canopy Cover and Vertical Profile Metrics Data Global Footprint Level V002</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>395</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="107" t="str">
-        <f>VLOOKUP($A3,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>25 m</v>
-      </c>
-      <c r="F3" s="107">
-        <f>VLOOKUP($A3,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>2019</v>
-      </c>
-      <c r="G3" s="107">
-        <f>VLOOKUP($A3,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H3" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="107">
-        <v>2022</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="K3" s="30">
-        <v>130</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="M3" s="30" t="str">
-        <f t="shared" ref="M3:M23" si="0">IF(OR(L3 =".tif", L3=".nc"), "No", IF(L3 = ".hdf", "Yes", "?"))</f>
-        <v>?</v>
-      </c>
-      <c r="N3" s="30">
-        <v>80</v>
-      </c>
-      <c r="O3" s="30">
-        <f t="shared" ref="O3:O23" si="1">N3*K3</f>
-        <v>10400</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="51" hidden="1">
-      <c r="A4" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="30" t="str">
-        <f>VLOOKUP(A4,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>GEDI L2B Canopy Cover and Vertical Profile Metrics Data Global Footprint Level V002</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="107" t="str">
-        <f>VLOOKUP($A4,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>25 m</v>
-      </c>
-      <c r="F4" s="107">
-        <f>VLOOKUP($A4,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>2019</v>
-      </c>
-      <c r="G4" s="107">
-        <f>VLOOKUP($A4,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H4" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I4" s="107">
-        <v>2022</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="K4" s="30">
-        <v>131</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="M4" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="N4" s="30">
-        <v>80</v>
-      </c>
-      <c r="O4" s="30">
-        <f t="shared" si="1"/>
-        <v>10480</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="51" hidden="1">
-      <c r="A5" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="30" t="str">
-        <f>VLOOKUP(A5,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>GEDI L2B Canopy Cover and Vertical Profile Metrics Data Global Footprint Level V002</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="107" t="str">
-        <f>VLOOKUP($A5,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>25 m</v>
-      </c>
-      <c r="F5" s="107">
-        <f>VLOOKUP($A5,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>2019</v>
-      </c>
-      <c r="G5" s="107">
-        <f>VLOOKUP($A5,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H5" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I5" s="107">
-        <v>2022</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="K5" s="30">
-        <v>132</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="M5" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="N5" s="30">
-        <v>80</v>
-      </c>
-      <c r="O5" s="30">
-        <f t="shared" si="1"/>
-        <v>10560</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="34">
-      <c r="A6" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="30" t="str">
-        <f>VLOOKUP(A6,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Global Forest Canopy Height, 2019</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="107" t="str">
-        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="107">
-        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H6" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I6" s="107">
-        <v>2019</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="K6" s="30">
-        <v>1</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="M6" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N6" s="30">
-        <v>5700</v>
-      </c>
-      <c r="O6" s="30">
-        <f t="shared" si="1"/>
-        <v>5700</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="68">
-      <c r="A7" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="30" t="str">
-        <f>VLOOKUP(A7,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>ABoVE: Tree Canopy Cover and Stand Age from Landsat, Boreal Forest Biome, 1984-2020</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="107" t="str">
-        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F7" s="107">
-        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>1984</v>
-      </c>
-      <c r="G7" s="107">
-        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2020</v>
-      </c>
-      <c r="H7" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I7" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="M7" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="P7" s="30">
-        <v>245</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="85" hidden="1">
-      <c r="A8" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="30" t="str" cm="1">
-        <f t="array" ref="B8">INDEX('Variables (long list)'!B:B,MATCH($A8,'Variables (long list)'!A:A,0)+1)</f>
-        <v>Newfoundland forest inventory (Department of Fisheries Forestry and Agriculture of Newfoundland and Labrador, 2022)</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="107" t="str" cm="1">
-        <f t="array" ref="E8">INDEX('Variables (long list)'!C:C,MATCH($A7,'Variables (long list)'!A:A,0)+1)</f>
-        <v>?</v>
-      </c>
-      <c r="F8" s="107" t="str" cm="1">
-        <f t="array" ref="F8">INDEX('Variables (long list)'!D:D,MATCH($A7,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>?</v>
-      </c>
-      <c r="G8" s="107" t="str" cm="1">
-        <f t="array" ref="G8">INDEX('Variables (long list)'!E:E,MATCH($A7,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>?</v>
-      </c>
-      <c r="H8" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I8" s="107" t="s">
-        <v>485</v>
-      </c>
-      <c r="M8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="119" hidden="1">
-      <c r="A9" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="30" t="str">
-        <f>VLOOKUP(A9,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Landsat Surface Reflectance-derived Enhanced Vegetation Index (EVI)</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="107" t="str">
-        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F9" s="107" t="str">
-        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G9" s="107">
-        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>474</v>
-      </c>
-      <c r="I9" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="K9" s="30">
-        <v>68</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="M9" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="N9" s="30">
-        <v>150</v>
-      </c>
-      <c r="O9" s="30">
-        <f t="shared" si="1"/>
-        <v>10200</v>
-      </c>
-      <c r="P9" s="30">
-        <v>2590</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="68" hidden="1">
-      <c r="A10" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="30" t="str">
-        <f>VLOOKUP(A10,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>MuSLI Multi-Source Land Surface Phenology Yearly North America 30 m V011</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>395</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="107" t="str">
-        <f>VLOOKUP($A10,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F10" s="107">
-        <f>VLOOKUP($A10,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>2016</v>
-      </c>
-      <c r="G10" s="107">
-        <f>VLOOKUP($A10,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H10" s="107" t="s">
-        <v>477</v>
-      </c>
-      <c r="I10" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="K10" s="30">
-        <f>7*4</f>
-        <v>28</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="M10" s="30" t="str">
-        <f>IF(OR(L10 =".tif", L10=".nc"), "No", IF(L10 = ".hdf", "Yes", "?"))</f>
-        <v>No</v>
-      </c>
-      <c r="N10" s="30">
-        <f>150</f>
-        <v>150</v>
-      </c>
-      <c r="O10" s="30">
-        <f>N10*K10</f>
-        <v>4200</v>
-      </c>
-      <c r="P10" s="30">
-        <v>1800</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="85">
-      <c r="A11" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="30" t="str">
-        <f>VLOOKUP(A11,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Newfoundland forest inventory (Department of Fisheries Forestry and Agriculture of Newfoundland and Labrador, 2022)</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="E11" s="107" t="str">
-        <f>VLOOKUP($A11,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>?</v>
-      </c>
-      <c r="F11" s="107" t="str">
-        <f>VLOOKUP($A11,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>?</v>
-      </c>
-      <c r="G11" s="107" t="str">
-        <f>VLOOKUP($A11,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>?</v>
-      </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="M11" s="30" t="str">
-        <f>IF(OR(L11 =".tif", L11=".nc"), "No", IF(L11 = ".hdf", "Yes", "?"))</f>
-        <v>?</v>
-      </c>
-      <c r="O11" s="30">
-        <f>N10*K11</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="T11" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="51">
-      <c r="A12" s="57" t="s">
-        <v>808</v>
-      </c>
-      <c r="B12" s="30" t="str">
-        <f>VLOOKUP(A12,'Variables (long list)'!$A$7:$B$56,2,)</f>
-        <v>National Terrestrial Ecosystem Monitoring System for Canada</v>
-      </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="110" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="107" t="str">
-        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:C$56,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F12" s="107">
-        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:D$56,4,)</f>
-        <v>1985</v>
-      </c>
-      <c r="G12" s="107">
-        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:E$56,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H12" s="107" t="s">
-        <v>477</v>
-      </c>
-      <c r="I12" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="51">
-      <c r="A13" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="30" t="str">
-        <f>VLOOKUP(A13,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="107" t="str">
-        <f>VLOOKUP($A13,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>20-30 m</v>
-      </c>
-      <c r="F13" s="107" t="str">
-        <f>VLOOKUP($A13,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G13" s="107">
-        <f>VLOOKUP($A13,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2011</v>
-      </c>
-      <c r="H13" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I13" s="107">
-        <v>2011</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="M13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O13" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="30">
-        <f>1530/3</f>
-        <v>510</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="51">
-      <c r="A14" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="30" t="str">
-        <f>VLOOKUP(A14,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
-      </c>
-      <c r="C14" s="125" t="s">
-        <v>805</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E14" s="107" t="str">
-        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>20-30 m</v>
-      </c>
-      <c r="F14" s="107" t="str">
-        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G14" s="107">
-        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2011</v>
-      </c>
-      <c r="H14" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I14" s="107">
-        <v>2011</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="M14" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O14" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="30">
-        <f t="shared" ref="P14:P15" si="2">1530/3</f>
-        <v>510</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="R14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="51">
-      <c r="A15" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="30" t="str">
-        <f>VLOOKUP(A15,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" s="107" t="str">
-        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>20-30 m</v>
-      </c>
-      <c r="F15" s="107" t="str">
-        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G15" s="107">
-        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2011</v>
-      </c>
-      <c r="H15" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I15" s="107">
-        <v>2011</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="M15" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O15" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="30">
-        <f t="shared" si="2"/>
-        <v>510</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="R15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="85">
-      <c r="A16" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="30" t="str">
-        <f>VLOOKUP(A16,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Surface Prediction Archive (CaSPAr)- high-resolution deterministic prediction system HRDPS, CaLDAS</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="107" t="str">
-        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>2.5 km</v>
-      </c>
-      <c r="F16" s="107">
-        <v>2017</v>
-      </c>
-      <c r="G16" s="107">
-        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H16" s="107" t="s">
-        <v>802</v>
-      </c>
-      <c r="I16" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M16" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O16" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="T16" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="68">
-      <c r="A17" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>811</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E17" s="107" t="str" cm="1">
-        <f t="array" ref="E17">INDEX('Variables (long list)'!C:C,MATCH($A16,'Variables (long list)'!A:A,0)+1)</f>
-        <v>~1.2 km</v>
-      </c>
-      <c r="F17" s="107">
-        <v>1970</v>
-      </c>
-      <c r="G17" s="107" cm="1">
-        <f t="array" ref="G17">INDEX('Variables (long list)'!E:E,MATCH($A16,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>2020</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M17" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O17" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="85">
-      <c r="A18" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="30" t="str">
-        <f>VLOOKUP(A18,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Surface Prediction Archive (CaSPAr)- high-resolution deterministic prediction system HRDPS, CaLDAS or CaPA_fine</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E18" s="107" t="str">
-        <f>VLOOKUP($A18,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>2.5 km</v>
-      </c>
-      <c r="F18" s="107">
-        <v>2018</v>
-      </c>
-      <c r="G18" s="107">
-        <f>VLOOKUP($A18,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H18" s="107" t="s">
-        <v>802</v>
-      </c>
-      <c r="I18" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M18" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="T18" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="68">
-      <c r="A19" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>812</v>
-      </c>
-      <c r="D19" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" s="107" t="str" cm="1">
-        <f t="array" ref="E19">INDEX('Variables (long list)'!C:C,MATCH($A18,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>~1.2 km</v>
-      </c>
-      <c r="F19" s="107">
-        <v>1970</v>
-      </c>
-      <c r="G19" s="107" cm="1">
-        <f t="array" ref="G19">INDEX('Variables (long list)'!E:E,MATCH($A18,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>2020</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M19" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="85">
-      <c r="A20" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="30" t="str">
-        <f>VLOOKUP(A20,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Surface Prediction Archive (CaSPAr)- high-resolution deterministic prediction system HRDPS, CaLDAS</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E20" s="107" t="str">
-        <f>VLOOKUP($A20,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>2.5 km</v>
-      </c>
-      <c r="F20" s="107">
-        <v>2017</v>
-      </c>
-      <c r="G20" s="107">
-        <f>VLOOKUP($A20,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2022</v>
-      </c>
-      <c r="H20" s="107" t="s">
-        <v>802</v>
-      </c>
-      <c r="I20" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M20" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O20" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="68">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="110" t="s">
-        <v>812</v>
-      </c>
-      <c r="D21" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="107" cm="1">
-        <f t="array" ref="E21">INDEX('Variables (long list)'!C:C,MATCH($A20,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="107">
-        <v>1970</v>
-      </c>
-      <c r="G21" s="107" cm="1">
-        <f t="array" ref="G21">INDEX('Variables (long list)'!E:E,MATCH($A20,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="31" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="30" t="str">
-        <f>VLOOKUP(A22,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>https://soilgrids.org/</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E22" s="107" t="str">
-        <f>VLOOKUP($A22,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>250 m</v>
-      </c>
-      <c r="F22" s="107" t="str">
-        <f>VLOOKUP($A22,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G22" s="107">
-        <v>2022</v>
-      </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="M22" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O22" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="17">
-      <c r="A23" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" s="30" t="str">
-        <f>VLOOKUP(A23,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>https://soilgrids.org/</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E23" s="107" t="str">
-        <f>VLOOKUP($A23,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>250 m</v>
-      </c>
-      <c r="F23" s="107" t="str">
-        <f>VLOOKUP($A23,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G23" s="107">
-        <v>2022</v>
-      </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="M23" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O23" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="51">
-      <c r="A24" s="57" t="s">
-        <v>807</v>
-      </c>
-      <c r="B24" s="30" t="str">
-        <f>VLOOKUP(A24,'Variables (long list)'!$A$7:$B$56,2,)</f>
-        <v>National Terrestrial Ecosystem Monitoring System for Canada</v>
-      </c>
-      <c r="E24" s="107" t="str">
-        <f>VLOOKUP($A24,'Variables (long list)'!$A$7:C$56,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F24" s="107">
-        <f>VLOOKUP($A24,'Variables (long list)'!$A$7:D$56,4,)</f>
-        <v>1985</v>
-      </c>
-      <c r="G24" s="107">
-        <f>VLOOKUP($A24,'Variables (long list)'!$A$7:E$56,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="T24" s="127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="108" customFormat="1">
-      <c r="A25" s="112"/>
-      <c r="T25" s="128"/>
-    </row>
-    <row r="26" spans="1:20" ht="68">
-      <c r="N26" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="O26" s="30">
-        <f>SUM(O2:O25)</f>
-        <v>51940</v>
-      </c>
-      <c r="P26" s="30">
-        <f>SUM(P2:P25)</f>
-        <v>6173.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="17">
-      <c r="N27" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="O27" s="30">
-        <f>O26/1000</f>
-        <v>51.94</v>
-      </c>
-      <c r="P27" s="30">
-        <f>P26/1000</f>
-        <v>6.1738999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="17">
-      <c r="N28" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="O28" s="30">
-        <f>O27/1000</f>
-        <v>5.194E-2</v>
-      </c>
-      <c r="P28" s="30">
-        <f>P27/1000</f>
-        <v>6.1738999999999995E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="R1:R1048576 S2:S23">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="IDK">
-      <formula>NOT(ISERROR(SEARCH("IDK",R1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",R1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="11" operator="beginsWith" text="Y">
-      <formula>LEFT(R1,LEN("Y"))="Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
-      <formula>"""Y"""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S19 R16:T16">
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:S21">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="?">
-      <formula>NOT(ISERROR(SEARCH("?",R20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="~">
-      <formula>LEFT(T1,LEN("~"))="~"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="IDK">
-      <formula>NOT(ISERROR(SEARCH("IDK",T1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",T1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="5" operator="beginsWith" text="Y">
-      <formula>LEFT(T1,LEN("Y"))="Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"""Y"""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20:T21">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="?">
-      <formula>NOT(ISERROR(SEARCH("?",T20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{68A60BD2-5824-194F-B543-5C55C014F9F4}"/>
-    <hyperlink ref="C2" r:id="rId2" display="Website" xr:uid="{046BD154-3FBB-114F-93E4-4FEAED8D1929}"/>
-    <hyperlink ref="C3" r:id="rId3" display="Website" xr:uid="{CBFD62A0-011F-644A-A20C-B099BEB3B569}"/>
-    <hyperlink ref="C4" r:id="rId4" display="Website" xr:uid="{1FACF9A1-99C7-F649-A87D-C229D863188C}"/>
-    <hyperlink ref="C5" r:id="rId5" display="Website" xr:uid="{8E829A63-A9A1-534E-B3B8-DE1ED441BA1C}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{48192919-F950-3F4B-8DD1-09FF2B5E260A}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{4CE7D37A-C862-D74B-B206-773B5A57A833}"/>
-    <hyperlink ref="D22" r:id="rId8" xr:uid="{5430963D-77F5-DF42-BF4D-28FA476CA441}"/>
-    <hyperlink ref="D23" r:id="rId9" xr:uid="{F7EF0D0D-620F-DA46-9501-056279C0C36A}"/>
-    <hyperlink ref="D2" r:id="rId10" display="Data landing" xr:uid="{DB5F3D15-B268-044E-9A13-F07FEA5683EE}"/>
-    <hyperlink ref="D3" r:id="rId11" display="Data landing" xr:uid="{C47CB836-F4E9-C843-ACA0-22920A92E129}"/>
-    <hyperlink ref="D4" r:id="rId12" display="Data landing" xr:uid="{998C8F11-FF4D-1140-9C8B-17D60019A3E2}"/>
-    <hyperlink ref="D5" r:id="rId13" display="Data landing" xr:uid="{C3EE7FE2-F8A4-AB45-B33E-9F7ED560CC0B}"/>
-    <hyperlink ref="D9" r:id="rId14" display="Data landing" xr:uid="{2BE31E1C-7999-D54C-9778-33DA3A14C6B7}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{8262870B-CE83-C748-B777-14DE4C7A4802}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{CA94B2E5-1EF8-EB42-A9B1-DF85D20F40F8}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{B488C0F8-86C4-8F40-9AAE-AC46CD7FCF02}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{A923C952-5B5A-A04C-9361-140946C1200F}"/>
-    <hyperlink ref="D17" r:id="rId19" xr:uid="{640067FF-C0BA-F249-9D94-F88BFA131B90}"/>
-    <hyperlink ref="D15" r:id="rId20" xr:uid="{B286A76F-AB95-5B43-BED4-C494121D5AD9}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{7E21CFE3-C0AF-DB4C-A4B9-5507C13F0598}"/>
-    <hyperlink ref="D6" r:id="rId22" xr:uid="{25221079-366D-524D-A4F4-40D97FDF872A}"/>
-    <hyperlink ref="C10" r:id="rId23" xr:uid="{C2C4415E-8DEE-3D4E-9BE1-FF3F5E130906}"/>
-    <hyperlink ref="D12" r:id="rId24" xr:uid="{6AA575BE-6694-A447-8A3C-37DAB730B7FD}"/>
-    <hyperlink ref="C17" r:id="rId25" xr:uid="{2AC0D096-1ECC-AE44-96B1-903A5109B522}"/>
-    <hyperlink ref="C19" r:id="rId26" xr:uid="{755D567A-18AB-DA4D-9014-EDF7346F8B34}"/>
-    <hyperlink ref="D21" r:id="rId27" xr:uid="{1ACF5822-E6D9-C04E-9823-839675E58BBD}"/>
-    <hyperlink ref="C21" r:id="rId28" xr:uid="{A1B97BB4-E4BF-214F-BEBB-9D14D502E27D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId29"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA52767-3781-3640-B733-000294CBB1C7}">
-  <dimension ref="A1:W21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8685,12 +7736,11 @@
     <col min="17" max="17" width="11.33203125" style="30" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" style="30" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="30" customWidth="1"/>
-    <col min="20" max="21" width="12.33203125" style="127" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="30" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="30"/>
+    <col min="20" max="20" width="12.33203125" style="127" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="106" customFormat="1" ht="68">
+    <row r="1" spans="1:20" s="106" customFormat="1" ht="68">
       <c r="A1" s="105" t="s">
         <v>196</v>
       </c>
@@ -8751,17 +7801,8 @@
       <c r="T1" s="126" t="s">
         <v>817</v>
       </c>
-      <c r="U1" s="126" t="s">
-        <v>821</v>
-      </c>
-      <c r="V1" s="108" t="s">
-        <v>822</v>
-      </c>
-      <c r="W1" s="106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="68">
+    </row>
+    <row r="2" spans="1:20" ht="68">
       <c r="A2" s="30" t="s">
         <v>207</v>
       </c>
@@ -8826,7 +7867,1480 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="34">
+    <row r="3" spans="1:20" ht="51">
+      <c r="A3" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="30" t="str">
+        <f>VLOOKUP(A3,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>GEDI L2B Canopy Cover and Vertical Profile Metrics Data Global Footprint Level V002</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="107" t="str">
+        <f>VLOOKUP($A3,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>25 m</v>
+      </c>
+      <c r="F3" s="107">
+        <f>VLOOKUP($A3,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>2019</v>
+      </c>
+      <c r="G3" s="107">
+        <f>VLOOKUP($A3,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H3" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="107">
+        <v>2022</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3" s="30">
+        <v>130</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="M3" s="30" t="str">
+        <f t="shared" ref="M3:M24" si="0">IF(OR(L3 =".tif", L3=".nc"), "No", IF(L3 = ".hdf", "Yes", "?"))</f>
+        <v>?</v>
+      </c>
+      <c r="N3" s="30">
+        <v>80</v>
+      </c>
+      <c r="O3" s="30">
+        <f t="shared" ref="O3:O24" si="1">N3*K3</f>
+        <v>10400</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="51">
+      <c r="A4" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="30" t="str">
+        <f>VLOOKUP(A4,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>GEDI L2B Canopy Cover and Vertical Profile Metrics Data Global Footprint Level V002</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="107" t="str">
+        <f>VLOOKUP($A4,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>25 m</v>
+      </c>
+      <c r="F4" s="107">
+        <f>VLOOKUP($A4,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>2019</v>
+      </c>
+      <c r="G4" s="107">
+        <f>VLOOKUP($A4,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H4" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="107">
+        <v>2022</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="30">
+        <v>131</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="M4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="N4" s="30">
+        <v>80</v>
+      </c>
+      <c r="O4" s="30">
+        <f t="shared" si="1"/>
+        <v>10480</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="51">
+      <c r="A5" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="30" t="str">
+        <f>VLOOKUP(A5,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>GEDI L2B Canopy Cover and Vertical Profile Metrics Data Global Footprint Level V002</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="107" t="str">
+        <f>VLOOKUP($A5,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>25 m</v>
+      </c>
+      <c r="F5" s="107">
+        <f>VLOOKUP($A5,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>2019</v>
+      </c>
+      <c r="G5" s="107">
+        <f>VLOOKUP($A5,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="107">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="30">
+        <v>132</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="M5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="N5" s="30">
+        <v>80</v>
+      </c>
+      <c r="O5" s="30">
+        <f t="shared" si="1"/>
+        <v>10560</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="34">
+      <c r="A6" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="30" t="str">
+        <f>VLOOKUP(A6,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Global Forest Canopy Height, 2019</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="107" t="str">
+        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="107">
+        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2019</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" s="107">
+        <v>2019</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="K6" s="30">
+        <v>1</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="M6" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="N6" s="30">
+        <v>5700</v>
+      </c>
+      <c r="O6" s="30">
+        <f t="shared" si="1"/>
+        <v>5700</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="85">
+      <c r="A7" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="30" t="str">
+        <f>VLOOKUP(A7,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>ABoVE: Tree Canopy Cover and Stand Age from Landsat, Boreal Forest Biome, 1984-2020</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="107" t="str">
+        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F7" s="107">
+        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>1984</v>
+      </c>
+      <c r="G7" s="107">
+        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2020</v>
+      </c>
+      <c r="H7" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I7" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="M7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="P7" s="30">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="85">
+      <c r="A8" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="30" t="str" cm="1">
+        <f t="array" ref="B8">INDEX('Variables (long list)'!B:B,MATCH($A8,'Variables (long list)'!A:A,0)+1)</f>
+        <v>Newfoundland forest inventory (Department of Fisheries Forestry and Agriculture of Newfoundland and Labrador, 2022)</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="107" t="str" cm="1">
+        <f t="array" ref="E8">INDEX('Variables (long list)'!C:C,MATCH($A7,'Variables (long list)'!A:A,0)+1)</f>
+        <v>?</v>
+      </c>
+      <c r="F8" s="107" t="str" cm="1">
+        <f t="array" ref="F8">INDEX('Variables (long list)'!D:D,MATCH($A7,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>?</v>
+      </c>
+      <c r="G8" s="107" t="str" cm="1">
+        <f t="array" ref="G8">INDEX('Variables (long list)'!E:E,MATCH($A7,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>?</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I8" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="M8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="119">
+      <c r="A9" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="30" t="str">
+        <f>VLOOKUP(A9,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Landsat Surface Reflectance-derived Enhanced Vegetation Index (EVI)</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="107" t="str">
+        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F9" s="107" t="str">
+        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G9" s="107">
+        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="K9" s="30">
+        <v>68</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="M9" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="N9" s="30">
+        <v>150</v>
+      </c>
+      <c r="O9" s="30">
+        <f t="shared" si="1"/>
+        <v>10200</v>
+      </c>
+      <c r="P9" s="30">
+        <v>2590</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="51">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="107">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="107">
+        <v>2019</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="68">
+      <c r="A11" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="30" t="str">
+        <f>VLOOKUP(A11,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>MuSLI Multi-Source Land Surface Phenology Yearly North America 30 m V011</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="107" t="str">
+        <f>VLOOKUP($A11,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F11" s="107">
+        <f>VLOOKUP($A11,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>2016</v>
+      </c>
+      <c r="G11" s="107">
+        <f>VLOOKUP($A11,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2019</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="K11" s="30">
+        <f>7*4</f>
+        <v>28</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="M11" s="30" t="str">
+        <f>IF(OR(L11 =".tif", L11=".nc"), "No", IF(L11 = ".hdf", "Yes", "?"))</f>
+        <v>No</v>
+      </c>
+      <c r="N11" s="30">
+        <f>150</f>
+        <v>150</v>
+      </c>
+      <c r="O11" s="30">
+        <f>N11*K11</f>
+        <v>4200</v>
+      </c>
+      <c r="P11" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="85">
+      <c r="A12" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="30" t="str">
+        <f>VLOOKUP(A12,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Newfoundland forest inventory (Department of Fisheries Forestry and Agriculture of Newfoundland and Labrador, 2022)</v>
+      </c>
+      <c r="C12" s="116"/>
+      <c r="E12" s="107" t="str">
+        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>?</v>
+      </c>
+      <c r="F12" s="107" t="str">
+        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>?</v>
+      </c>
+      <c r="G12" s="107" t="str">
+        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>?</v>
+      </c>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="M12" s="30" t="str">
+        <f>IF(OR(L12 =".tif", L12=".nc"), "No", IF(L12 = ".hdf", "Yes", "?"))</f>
+        <v>?</v>
+      </c>
+      <c r="O12" s="30">
+        <f>N11*K12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="T12" s="127" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="51">
+      <c r="A13" s="57" t="s">
+        <v>808</v>
+      </c>
+      <c r="B13" s="30" t="str">
+        <f>VLOOKUP(A13,'Variables (long list)'!$A$7:$B$56,2,)</f>
+        <v>National Terrestrial Ecosystem Monitoring System for Canada</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="107" t="str">
+        <f>VLOOKUP($A13,'Variables (long list)'!$A$7:C$56,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F13" s="107">
+        <f>VLOOKUP($A13,'Variables (long list)'!$A$7:D$56,4,)</f>
+        <v>1985</v>
+      </c>
+      <c r="G13" s="107">
+        <f>VLOOKUP($A13,'Variables (long list)'!$A$7:E$56,5,)</f>
+        <v>2019</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="51">
+      <c r="A14" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="30" t="str">
+        <f>VLOOKUP(A14,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="107" t="str">
+        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>20-30 m</v>
+      </c>
+      <c r="F14" s="107" t="str">
+        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G14" s="107">
+        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2011</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I14" s="107">
+        <v>2011</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="M14" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O14" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="30">
+        <f>1530/3</f>
+        <v>510</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="51">
+      <c r="A15" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="30" t="str">
+        <f>VLOOKUP(A15,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>805</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="107" t="str">
+        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>20-30 m</v>
+      </c>
+      <c r="F15" s="107" t="str">
+        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G15" s="107">
+        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2011</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I15" s="107">
+        <v>2011</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="M15" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O15" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="30">
+        <f t="shared" ref="P15:P16" si="2">1530/3</f>
+        <v>510</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="127" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="51">
+      <c r="A16" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>VLOOKUP(A16,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="107" t="str">
+        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>20-30 m</v>
+      </c>
+      <c r="F16" s="107" t="str">
+        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G16" s="107">
+        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2011</v>
+      </c>
+      <c r="H16" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" s="107">
+        <v>2011</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="M16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O16" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="30">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="127" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="85">
+      <c r="A17" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="30" t="str">
+        <f>VLOOKUP(A17,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Surface Prediction Archive (CaSPAr)- high-resolution deterministic prediction system HRDPS, CaLDAS</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="107" t="str">
+        <f>VLOOKUP($A17,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>2.5 km</v>
+      </c>
+      <c r="F17" s="107">
+        <v>2017</v>
+      </c>
+      <c r="G17" s="107">
+        <f>VLOOKUP($A17,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O17" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="T17" s="127" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="68">
+      <c r="A18" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>811</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="107" t="str" cm="1">
+        <f t="array" ref="E18">INDEX('Variables (long list)'!C:C,MATCH($A17,'Variables (long list)'!A:A,0)+1)</f>
+        <v>~1.2 km</v>
+      </c>
+      <c r="F18" s="107">
+        <v>1970</v>
+      </c>
+      <c r="G18" s="107" cm="1">
+        <f t="array" ref="G18">INDEX('Variables (long list)'!E:E,MATCH($A17,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H18" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="M18" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O18" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="85">
+      <c r="A19" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="30" t="str">
+        <f>VLOOKUP(A19,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Surface Prediction Archive (CaSPAr)- high-resolution deterministic prediction system HRDPS, CaLDAS or CaPA_fine</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="107" t="str">
+        <f>VLOOKUP($A19,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>2.5 km</v>
+      </c>
+      <c r="F19" s="107">
+        <v>2018</v>
+      </c>
+      <c r="G19" s="107">
+        <f>VLOOKUP($A19,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="M19" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O19" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="T19" s="127" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="68">
+      <c r="A20" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>812</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="107" t="str" cm="1">
+        <f t="array" ref="E20">INDEX('Variables (long list)'!C:C,MATCH($A19,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>~1.2 km</v>
+      </c>
+      <c r="F20" s="107">
+        <v>1970</v>
+      </c>
+      <c r="G20" s="107" cm="1">
+        <f t="array" ref="G20">INDEX('Variables (long list)'!E:E,MATCH($A19,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H20" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="M20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O20" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="85">
+      <c r="A21" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="30" t="str">
+        <f>VLOOKUP(A21,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Surface Prediction Archive (CaSPAr)- high-resolution deterministic prediction system HRDPS, CaLDAS</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="107" t="str">
+        <f>VLOOKUP($A21,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>2.5 km</v>
+      </c>
+      <c r="F21" s="107">
+        <v>2017</v>
+      </c>
+      <c r="G21" s="107">
+        <f>VLOOKUP($A21,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="M21" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O21" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="68">
+      <c r="A22" s="30"/>
+      <c r="B22" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>812</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E22" s="107" cm="1">
+        <f t="array" ref="E22">INDEX('Variables (long list)'!C:C,MATCH($A21,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="107">
+        <v>1970</v>
+      </c>
+      <c r="G22" s="107" cm="1">
+        <f t="array" ref="G22">INDEX('Variables (long list)'!E:E,MATCH($A21,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="31" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="30" t="str">
+        <f>VLOOKUP(A23,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>https://soilgrids.org/</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="107" t="str">
+        <f>VLOOKUP($A23,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>250 m</v>
+      </c>
+      <c r="F23" s="107" t="str">
+        <f>VLOOKUP($A23,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G23" s="107">
+        <v>2022</v>
+      </c>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="M23" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O23" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17">
+      <c r="A24" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="30" t="str">
+        <f>VLOOKUP(A24,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>https://soilgrids.org/</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="107" t="str">
+        <f>VLOOKUP($A24,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>250 m</v>
+      </c>
+      <c r="F24" s="107" t="str">
+        <f>VLOOKUP($A24,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G24" s="107">
+        <v>2022</v>
+      </c>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="M24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="O24" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="51">
+      <c r="A25" s="57" t="s">
+        <v>807</v>
+      </c>
+      <c r="B25" s="30" t="str">
+        <f>VLOOKUP(A25,'Variables (long list)'!$A$7:$B$56,2,)</f>
+        <v>National Terrestrial Ecosystem Monitoring System for Canada</v>
+      </c>
+      <c r="E25" s="107" t="str">
+        <f>VLOOKUP($A25,'Variables (long list)'!$A$7:C$56,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F25" s="107">
+        <f>VLOOKUP($A25,'Variables (long list)'!$A$7:D$56,4,)</f>
+        <v>1985</v>
+      </c>
+      <c r="G25" s="107">
+        <f>VLOOKUP($A25,'Variables (long list)'!$A$7:E$56,5,)</f>
+        <v>2019</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="T25" s="127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="108" customFormat="1">
+      <c r="A26" s="112"/>
+      <c r="T26" s="128"/>
+    </row>
+    <row r="27" spans="1:20" ht="68">
+      <c r="N27" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="O27" s="30">
+        <f>SUM(O2:O26)</f>
+        <v>51940</v>
+      </c>
+      <c r="P27" s="30">
+        <f>SUM(P2:P26)</f>
+        <v>6173.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="17">
+      <c r="N28" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="O28" s="30">
+        <f>O27/1000</f>
+        <v>51.94</v>
+      </c>
+      <c r="P28" s="30">
+        <f>P27/1000</f>
+        <v>6.1738999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17">
+      <c r="N29" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="O29" s="30">
+        <f>O28/1000</f>
+        <v>5.194E-2</v>
+      </c>
+      <c r="P29" s="30">
+        <f>P28/1000</f>
+        <v>6.1738999999999995E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="R1:R1048576 S2:S24">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+      <formula>"""Y"""</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="37" priority="11" operator="beginsWith" text="Y">
+      <formula>LEFT(R1,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",R1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:T17">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",R17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21:T22">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="?">
+      <formula>NOT(ISERROR(SEARCH("?",R21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="beginsWith" dxfId="32" priority="1" stopIfTrue="1" operator="beginsWith" text="~">
+      <formula>LEFT(T1,LEN("~"))="~"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="31" priority="5" operator="beginsWith" text="Y">
+      <formula>LEFT(T1,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",T1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",T1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+      <formula>"""Y"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{68A60BD2-5824-194F-B543-5C55C014F9F4}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Website" xr:uid="{046BD154-3FBB-114F-93E4-4FEAED8D1929}"/>
+    <hyperlink ref="C3" r:id="rId3" display="Website" xr:uid="{CBFD62A0-011F-644A-A20C-B099BEB3B569}"/>
+    <hyperlink ref="C4" r:id="rId4" display="Website" xr:uid="{1FACF9A1-99C7-F649-A87D-C229D863188C}"/>
+    <hyperlink ref="C5" r:id="rId5" display="Website" xr:uid="{8E829A63-A9A1-534E-B3B8-DE1ED441BA1C}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{48192919-F950-3F4B-8DD1-09FF2B5E260A}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{4CE7D37A-C862-D74B-B206-773B5A57A833}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{5430963D-77F5-DF42-BF4D-28FA476CA441}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{F7EF0D0D-620F-DA46-9501-056279C0C36A}"/>
+    <hyperlink ref="D2" r:id="rId10" display="Data landing" xr:uid="{DB5F3D15-B268-044E-9A13-F07FEA5683EE}"/>
+    <hyperlink ref="D3" r:id="rId11" display="Data landing" xr:uid="{C47CB836-F4E9-C843-ACA0-22920A92E129}"/>
+    <hyperlink ref="D4" r:id="rId12" display="Data landing" xr:uid="{998C8F11-FF4D-1140-9C8B-17D60019A3E2}"/>
+    <hyperlink ref="D5" r:id="rId13" display="Data landing" xr:uid="{C3EE7FE2-F8A4-AB45-B33E-9F7ED560CC0B}"/>
+    <hyperlink ref="D9" r:id="rId14" display="Data landing" xr:uid="{2BE31E1C-7999-D54C-9778-33DA3A14C6B7}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{8262870B-CE83-C748-B777-14DE4C7A4802}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{CA94B2E5-1EF8-EB42-A9B1-DF85D20F40F8}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{B488C0F8-86C4-8F40-9AAE-AC46CD7FCF02}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{A923C952-5B5A-A04C-9361-140946C1200F}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{640067FF-C0BA-F249-9D94-F88BFA131B90}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{B286A76F-AB95-5B43-BED4-C494121D5AD9}"/>
+    <hyperlink ref="D15" r:id="rId21" xr:uid="{7E21CFE3-C0AF-DB4C-A4B9-5507C13F0598}"/>
+    <hyperlink ref="D6" r:id="rId22" xr:uid="{25221079-366D-524D-A4F4-40D97FDF872A}"/>
+    <hyperlink ref="C11" r:id="rId23" xr:uid="{C2C4415E-8DEE-3D4E-9BE1-FF3F5E130906}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{6AA575BE-6694-A447-8A3C-37DAB730B7FD}"/>
+    <hyperlink ref="C18" r:id="rId25" xr:uid="{2AC0D096-1ECC-AE44-96B1-903A5109B522}"/>
+    <hyperlink ref="C20" r:id="rId26" xr:uid="{755D567A-18AB-DA4D-9014-EDF7346F8B34}"/>
+    <hyperlink ref="D22" r:id="rId27" xr:uid="{1ACF5822-E6D9-C04E-9823-839675E58BBD}"/>
+    <hyperlink ref="C22" r:id="rId28" xr:uid="{A1B97BB4-E4BF-214F-BEBB-9D14D502E27D}"/>
+    <hyperlink ref="D10" r:id="rId29" xr:uid="{F5538374-4895-7A49-8F42-5422C7C91697}"/>
+    <hyperlink ref="C10" r:id="rId30" xr:uid="{959EC9C4-39E5-1245-B537-68E22539FFB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId31"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA52767-3781-3640-B733-000294CBB1C7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AB28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="30" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="48.5" style="30" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="30" customWidth="1"/>
+    <col min="14" max="17" width="10.83203125" style="30" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="30" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="30" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="30" customWidth="1"/>
+    <col min="22" max="23" width="12.33203125" style="127" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="30" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="30" customWidth="1"/>
+    <col min="26" max="26" width="35" style="30" customWidth="1"/>
+    <col min="27" max="27" width="26.33203125" style="30" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" style="30" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="106" customFormat="1" ht="68">
+      <c r="A1" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>857</v>
+      </c>
+      <c r="K1" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="P1" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q1" s="106" t="s">
+        <v>487</v>
+      </c>
+      <c r="R1" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="T1" s="106" t="s">
+        <v>584</v>
+      </c>
+      <c r="U1" s="106" t="s">
+        <v>869</v>
+      </c>
+      <c r="V1" s="126" t="s">
+        <v>817</v>
+      </c>
+      <c r="W1" s="126" t="s">
+        <v>820</v>
+      </c>
+      <c r="X1" s="108" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y1" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="106" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA1" s="106" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB1" s="106" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="85">
+      <c r="A2" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="30" t="str">
+        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:B$52,2,)</f>
+        <v>Global Land Cover Mapping and Estimation Yearly 30 m V001</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="107" t="str">
+        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>30 m</v>
+      </c>
+      <c r="F2" s="107">
+        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>2001</v>
+      </c>
+      <c r="G2" s="107">
+        <f>VLOOKUP($A2,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2019</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I2" s="107">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="L2" s="30">
+        <v>4</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="N2" s="30" t="str">
+        <f>IF(OR(M2 =".tif", M2=".nc"), "No", IF(M2 = ".hdf", "Yes", "?"))</f>
+        <v>No</v>
+      </c>
+      <c r="O2" s="30">
+        <v>100</v>
+      </c>
+      <c r="P2" s="30">
+        <f>O2*L2</f>
+        <v>400</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>8.9</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="34">
       <c r="A3" s="30" t="s">
         <v>289</v>
       </c>
@@ -8852,48 +9366,63 @@
         <v>2019</v>
       </c>
       <c r="H3" s="107" t="s">
-        <v>404</v>
+        <v>862</v>
       </c>
       <c r="I3" s="107">
         <v>2019</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="K3" s="30">
+      <c r="L3" s="30">
         <v>1</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="M3" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="M3" s="30" t="str">
-        <f t="shared" ref="M3:M12" si="0">IF(OR(L3 =".tif", L3=".nc"), "No", IF(L3 = ".hdf", "Yes", "?"))</f>
+      <c r="N3" s="30" t="str">
+        <f t="shared" ref="N3:N18" si="0">IF(OR(M3 =".tif", M3=".nc"), "No", IF(M3 = ".hdf", "Yes", "?"))</f>
         <v>No</v>
       </c>
-      <c r="N3" s="30">
+      <c r="O3" s="30">
         <v>5700</v>
       </c>
-      <c r="O3" s="30">
-        <f t="shared" ref="O3" si="1">N3*K3</f>
+      <c r="P3" s="30">
+        <f t="shared" ref="P3" si="1">O3*L3</f>
         <v>5700</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="R3" s="30" t="s">
         <v>390</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="S3" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="U3" s="127" t="s">
+      <c r="T3" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="U3" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="W3" s="127" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="68">
+      <c r="X3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="119" hidden="1">
       <c r="A4" s="30" t="s">
         <v>262</v>
       </c>
@@ -8925,783 +9454,1387 @@
       <c r="I4" s="107" t="s">
         <v>404</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="107"/>
+      <c r="K4" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="M4" s="30" t="str">
+      <c r="N4" s="30" t="str">
         <f t="shared" si="0"/>
         <v>?</v>
       </c>
-      <c r="P4" s="30">
+      <c r="Q4" s="30">
         <v>245</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="R4" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="S4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="T4" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="V4" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="127" t="s">
+      <c r="W4" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="X4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="30" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="68">
+      <c r="Y4" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="119" hidden="1">
       <c r="A5" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="30" t="str">
-        <f>VLOOKUP(A5,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>MuSLI Multi-Source Land Surface Phenology Yearly North America 30 m V011</v>
-      </c>
-      <c r="C5" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="30" t="s">
         <v>393</v>
       </c>
       <c r="E5" s="107" t="str">
         <f>VLOOKUP($A5,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>30 m</v>
+        <v>25 m</v>
       </c>
       <c r="F5" s="107">
         <f>VLOOKUP($A5,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G5" s="107">
         <f>VLOOKUP($A5,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2022</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="J5" s="107"/>
+      <c r="K5" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="N5" s="30" t="str">
+        <f t="shared" ref="N5" si="2">IF(OR(M5 =".tif", M5=".nc"), "No", IF(M5 = ".hdf", "Yes", "?"))</f>
+        <v>?</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>245</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="V5" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="51">
+      <c r="A6" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="107">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="107">
+        <v>2015</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>858</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>873</v>
+      </c>
+      <c r="J6" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+    </row>
+    <row r="7" spans="1:28" ht="68">
+      <c r="A7" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>865</v>
+      </c>
+      <c r="F7" s="107">
         <v>2019</v>
       </c>
-      <c r="H5" s="107" t="s">
-        <v>477</v>
-      </c>
-      <c r="I5" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="G7" s="107">
+        <v>2020</v>
+      </c>
+      <c r="H7" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I7" s="107">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>868</v>
+      </c>
+      <c r="S7" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="132" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+    </row>
+    <row r="8" spans="1:28" ht="51">
+      <c r="A8" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>865</v>
+      </c>
+      <c r="F8" s="107">
+        <v>2019</v>
+      </c>
+      <c r="G8" s="107">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I8" s="107">
+        <v>2020</v>
+      </c>
+      <c r="J8" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="132" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+    </row>
+    <row r="9" spans="1:28" ht="68" hidden="1">
+      <c r="A9" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="107">
+        <v>2017</v>
+      </c>
+      <c r="G9" s="107">
+        <v>2019</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I9" s="107">
+        <v>2019</v>
+      </c>
+      <c r="J9" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="K5" s="30">
+      <c r="L9" s="30">
         <f>7*4</f>
         <v>28</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="M9" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="M5" s="30" t="str">
-        <f>IF(OR(L5 =".tif", L5=".nc"), "No", IF(L5 = ".hdf", "Yes", "?"))</f>
+      <c r="N9" s="30" t="str">
+        <f>IF(OR(M9 =".tif", M9=".nc"), "No", IF(M9 = ".hdf", "Yes", "?"))</f>
         <v>No</v>
       </c>
-      <c r="N5" s="30">
+      <c r="O9" s="30">
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="O5" s="30">
-        <f>N5*K5</f>
+      <c r="P9" s="30">
+        <f>O9*L9</f>
         <v>4200</v>
       </c>
-      <c r="P5" s="30">
+      <c r="Q9" s="30">
         <v>1800</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="R9" s="30" t="s">
         <v>387</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="129" customFormat="1" ht="85">
-      <c r="A6" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="129" t="str">
-        <f>VLOOKUP(A6,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Newfoundland forest inventory (Department of Fisheries Forestry and Agriculture of Newfoundland and Labrador, 2022)</v>
-      </c>
-      <c r="C6" s="132"/>
-      <c r="E6" s="130" t="str">
-        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>?</v>
-      </c>
-      <c r="F6" s="130" t="str">
-        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>?</v>
-      </c>
-      <c r="G6" s="130" t="str">
-        <f>VLOOKUP($A6,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>?</v>
-      </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130" t="s">
-        <v>404</v>
-      </c>
-      <c r="M6" s="129" t="str">
-        <f>IF(OR(L6 =".tif", L6=".nc"), "No", IF(L6 = ".hdf", "Yes", "?"))</f>
-        <v>?</v>
-      </c>
-      <c r="O6" s="129">
-        <f>N5*K6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="129" t="s">
-        <v>392</v>
-      </c>
-      <c r="R6" s="129" t="s">
-        <v>252</v>
-      </c>
-      <c r="T6" s="131" t="s">
-        <v>816</v>
-      </c>
-      <c r="U6" s="131"/>
-    </row>
-    <row r="7" spans="1:23" s="129" customFormat="1" ht="51">
-      <c r="A7" s="133" t="s">
-        <v>808</v>
-      </c>
-      <c r="B7" s="129" t="str">
-        <f>VLOOKUP(A7,'Variables (long list)'!$A$7:$B$56,2,)</f>
-        <v>National Terrestrial Ecosystem Monitoring System for Canada</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="134" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="130" t="str">
-        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:C$56,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F7" s="130">
-        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:D$56,4,)</f>
-        <v>1985</v>
-      </c>
-      <c r="G7" s="130">
-        <f>VLOOKUP($A7,'Variables (long list)'!$A$7:E$56,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H7" s="130" t="s">
-        <v>477</v>
-      </c>
-      <c r="I7" s="130" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q7" s="129" t="s">
-        <v>392</v>
-      </c>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" s="129" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="51">
-      <c r="A8" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="30" t="str">
-        <f>VLOOKUP(A8,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
-      </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="107" t="str">
-        <f>VLOOKUP($A8,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>20-30 m</v>
-      </c>
-      <c r="F8" s="107" t="str">
-        <f>VLOOKUP($A8,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G8" s="107">
-        <f>VLOOKUP($A8,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2011</v>
-      </c>
-      <c r="H8" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I8" s="107">
-        <v>2011</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="M8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O8" s="30">
-        <f t="shared" ref="O8:O12" si="2">N8*K8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <f>1530/3</f>
-        <v>510</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="51">
-      <c r="A9" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="30" t="str">
-        <f>VLOOKUP(A9,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>805</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="107" t="str">
-        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>20-30 m</v>
-      </c>
-      <c r="F9" s="107" t="str">
-        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
-      </c>
-      <c r="G9" s="107">
-        <f>VLOOKUP($A9,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2011</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="I9" s="107">
-        <v>2011</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="M9" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O9" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="30">
-        <f t="shared" ref="P9:P10" si="3">1530/3</f>
-        <v>510</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="S9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="51">
+      <c r="T9" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="AA9" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="68">
       <c r="A10" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="30" t="str">
-        <f>VLOOKUP(A10,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>252</v>
+        <v>380</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>395</v>
       </c>
       <c r="D10" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="E10" s="107" t="str">
-        <f>VLOOKUP($A10,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>20-30 m</v>
-      </c>
-      <c r="F10" s="107" t="str">
-        <f>VLOOKUP($A10,'Variables (long list)'!$A$7:D$52,4,)</f>
-        <v>NA</v>
+      <c r="E10" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="107">
+        <v>2001</v>
       </c>
       <c r="G10" s="107">
-        <f>VLOOKUP($A10,'Variables (long list)'!$A$7:E$52,5,)</f>
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="H10" s="107" t="s">
-        <v>404</v>
+        <v>862</v>
       </c>
       <c r="I10" s="107">
-        <v>2011</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="M10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O10" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="30">
-        <f t="shared" si="3"/>
-        <v>510</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>77</v>
+        <v>2019</v>
+      </c>
+      <c r="J10" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>398</v>
       </c>
       <c r="S10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="T10" s="127" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="68">
+      <c r="T10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="AA10" s="31"/>
+    </row>
+    <row r="11" spans="1:28" ht="68" hidden="1">
       <c r="A11" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>241</v>
+        <v>860</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>861</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>811</v>
+        <v>395</v>
       </c>
       <c r="D11" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="107" t="str" cm="1">
-        <f t="array" ref="E11">INDEX('Variables (long list)'!C:C,MATCH($A11,'Variables (long list)'!A:A,0)+1)</f>
-        <v>~1.2 km</v>
+      <c r="E11" s="107" t="s">
+        <v>199</v>
       </c>
       <c r="F11" s="107">
-        <v>1970</v>
-      </c>
-      <c r="G11" s="107" cm="1">
-        <f t="array" ref="G11">INDEX('Variables (long list)'!E:E,MATCH($A11,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>2020</v>
-      </c>
-      <c r="H11" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M11" s="30" t="str">
-        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="G11" s="107">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="L11" s="30">
+        <f>7*4</f>
+        <v>28</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="N11" s="30" t="str">
+        <f>IF(OR(M11 =".tif", M11=".nc"), "No", IF(M11 = ".hdf", "Yes", "?"))</f>
+        <v>No</v>
+      </c>
+      <c r="O11" s="30">
+        <f>150</f>
+        <v>150</v>
+      </c>
+      <c r="P11" s="30">
+        <f>O11*L11</f>
+        <v>4200</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1800</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="AA11" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="85" hidden="1">
+      <c r="A12" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="30" t="str">
+        <f>VLOOKUP(A12,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Newfoundland forest inventory (Department of Fisheries Forestry and Agriculture of Newfoundland and Labrador, 2022)</v>
+      </c>
+      <c r="E12" s="107" t="str">
+        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:C$52,3,)</f>
         <v>?</v>
       </c>
-      <c r="O11" s="30">
-        <f t="shared" si="2"/>
+      <c r="F12" s="107" t="str">
+        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>?</v>
+      </c>
+      <c r="G12" s="107" t="str">
+        <f>VLOOKUP($A12,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>?</v>
+      </c>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="J12" s="107"/>
+      <c r="N12" s="30" t="str">
+        <f>IF(OR(M12 =".tif", M12=".nc"), "No", IF(M12 = ".hdf", "Yes", "?"))</f>
+        <v>?</v>
+      </c>
+      <c r="P12" s="30">
+        <f>O9*L12</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="R11" s="30" t="s">
+      <c r="R12" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="V12" s="127" t="s">
         <v>816</v>
       </c>
-      <c r="S11" s="30" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="68">
-      <c r="A12" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>812</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="107" t="str" cm="1">
-        <f t="array" ref="E12">INDEX('Variables (long list)'!C:C,MATCH($A12,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>~1.2 km</v>
-      </c>
-      <c r="F12" s="107">
-        <v>1970</v>
-      </c>
-      <c r="G12" s="107" cm="1">
-        <f t="array" ref="G12">INDEX('Variables (long list)'!E:E,MATCH($A12,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>2020</v>
-      </c>
-      <c r="H12" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="M12" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>?</v>
-      </c>
-      <c r="O12" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="68">
+      <c r="Z12" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA12" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB12" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="17">
       <c r="A13" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="110" t="s">
-        <v>812</v>
-      </c>
-      <c r="D13" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="107" cm="1">
-        <f t="array" ref="E13">INDEX('Variables (long list)'!C:C,MATCH($A13,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="107">
-        <v>1970</v>
-      </c>
-      <c r="G13" s="107" cm="1">
-        <f t="array" ref="G13">INDEX('Variables (long list)'!E:E,MATCH($A13,'Variables (long list)'!$A:$A,0)+1)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="17">
+        <v>240</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="S13" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="31"/>
+    </row>
+    <row r="14" spans="1:28" ht="51">
       <c r="A14" s="30" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="B14" s="30" t="str">
         <f>VLOOKUP(A14,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>https://soilgrids.org/</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>252</v>
-      </c>
+        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
+      </c>
+      <c r="C14" s="124"/>
       <c r="D14" s="109" t="s">
         <v>393</v>
       </c>
       <c r="E14" s="107" t="str">
         <f>VLOOKUP($A14,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>250 m</v>
+        <v>20-30 m</v>
       </c>
       <c r="F14" s="107" t="str">
         <f>VLOOKUP($A14,'Variables (long list)'!$A$7:D$52,4,)</f>
         <v>NA</v>
       </c>
       <c r="G14" s="107">
-        <v>2022</v>
-      </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="M14" s="30" t="str">
-        <f t="shared" ref="M14:M15" si="4">IF(OR(L14 =".tif", L14=".nc"), "No", IF(L14 = ".hdf", "Yes", "?"))</f>
+        <f>VLOOKUP($A14,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2011</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I14" s="107">
+        <v>2011</v>
+      </c>
+      <c r="J14" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="N14" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>?</v>
       </c>
-      <c r="O14" s="30">
-        <f t="shared" ref="O14:O15" si="5">N14*K14</f>
+      <c r="P14" s="30">
+        <f t="shared" ref="P14:P18" si="3">O14*L14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="30" t="s">
-        <v>388</v>
+      <c r="Q14" s="30">
+        <f>1530/3</f>
+        <v>510</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="S14" s="30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="17">
+      <c r="T14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="V14" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z14" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="68">
       <c r="A15" s="30" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="B15" s="30" t="str">
         <f>VLOOKUP(A15,'Variables (long list)'!$A$7:$B$52,2,)</f>
-        <v>https://soilgrids.org/</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>252</v>
+        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>805</v>
       </c>
       <c r="D15" s="109" t="s">
         <v>393</v>
       </c>
       <c r="E15" s="107" t="str">
         <f>VLOOKUP($A15,'Variables (long list)'!$A$7:C$52,3,)</f>
-        <v>250 m</v>
+        <v>20-30 m</v>
       </c>
       <c r="F15" s="107" t="str">
         <f>VLOOKUP($A15,'Variables (long list)'!$A$7:D$52,4,)</f>
         <v>NA</v>
       </c>
       <c r="G15" s="107">
-        <v>2022</v>
-      </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="M15" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP($A15,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2011</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I15" s="107">
+        <v>2011</v>
+      </c>
+      <c r="J15" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="N15" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>?</v>
       </c>
-      <c r="O15" s="30">
-        <f t="shared" si="5"/>
+      <c r="P15" s="30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="30" t="s">
-        <v>389</v>
+      <c r="Q15" s="30">
+        <f t="shared" ref="Q15:Q16" si="4">1530/3</f>
+        <v>510</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="S15" s="30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" s="129" customFormat="1" ht="51">
-      <c r="A16" s="133" t="s">
-        <v>807</v>
-      </c>
-      <c r="B16" s="129" t="str">
-        <f>VLOOKUP(A16,'Variables (long list)'!$A$7:$B$56,2,)</f>
-        <v>National Terrestrial Ecosystem Monitoring System for Canada</v>
-      </c>
-      <c r="E16" s="130" t="str">
-        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:C$56,3,)</f>
-        <v>30 m</v>
-      </c>
-      <c r="F16" s="130">
-        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:D$56,4,)</f>
-        <v>1985</v>
-      </c>
-      <c r="G16" s="130">
-        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:E$56,5,)</f>
-        <v>2019</v>
-      </c>
-      <c r="H16" s="129" t="s">
-        <v>477</v>
-      </c>
-      <c r="I16" s="129" t="s">
-        <v>813</v>
+      <c r="T15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="V15" s="127" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="51">
+      <c r="A16" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>VLOOKUP(A16,'Variables (long list)'!$A$7:$B$52,2,)</f>
+        <v>Canadian Digital Elevation Model (DEM)  retrieved from Natural Resources Canada</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="107" t="str">
+        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:C$52,3,)</f>
+        <v>20-30 m</v>
+      </c>
+      <c r="F16" s="107" t="str">
+        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:D$52,4,)</f>
+        <v>NA</v>
+      </c>
+      <c r="G16" s="107">
+        <f>VLOOKUP($A16,'Variables (long list)'!$A$7:E$52,5,)</f>
+        <v>2011</v>
+      </c>
+      <c r="H16" s="107" t="s">
+        <v>862</v>
+      </c>
+      <c r="I16" s="107">
+        <v>2011</v>
+      </c>
+      <c r="J16" s="107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="N16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="P16" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="4"/>
+        <v>510</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="S16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="T16" s="131" t="s">
+      <c r="T16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="U16" s="131" t="s">
+      <c r="U16" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="V16" s="127" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z16" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="85">
+      <c r="A17" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="107" t="str" cm="1">
+        <f t="array" ref="E17">INDEX('Variables (long list)'!C:C,MATCH($A17,'Variables (long list)'!A:A,0)+1)</f>
+        <v>~1.2 km</v>
+      </c>
+      <c r="F17" s="107">
+        <v>1970</v>
+      </c>
+      <c r="G17" s="107" cm="1">
+        <f t="array" ref="G17">INDEX('Variables (long list)'!E:E,MATCH($A17,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="107"/>
+      <c r="N17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="P17" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="V17" s="127" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z17" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB17" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="68">
+      <c r="A18" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>812</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="107" t="str" cm="1">
+        <f t="array" ref="E18">INDEX('Variables (long list)'!C:C,MATCH($A18,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>~1.2 km</v>
+      </c>
+      <c r="F18" s="107">
+        <v>1970</v>
+      </c>
+      <c r="G18" s="107" cm="1">
+        <f t="array" ref="G18">INDEX('Variables (long list)'!E:E,MATCH($A18,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>2020</v>
+      </c>
+      <c r="H18" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="J18" s="107"/>
+      <c r="N18" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="P18" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="V18" s="127" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z18" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="68">
+      <c r="A19" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>812</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="107" cm="1">
+        <f t="array" ref="E19">INDEX('Variables (long list)'!C:C,MATCH($A19,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="107">
+        <v>1970</v>
+      </c>
+      <c r="G19" s="107" cm="1">
+        <f t="array" ref="G19">INDEX('Variables (long list)'!E:E,MATCH($A19,'Variables (long list)'!$A:$A,0)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="J19" s="107"/>
+      <c r="R19" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z19" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA19" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB19" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="17" hidden="1">
+      <c r="A20" s="57" t="s">
+        <v>819</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="V20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="V16" s="129" t="s">
+      <c r="W20" s="30"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+    </row>
+    <row r="21" spans="1:28" ht="67" customHeight="1">
+      <c r="A21" s="73" t="s">
+        <v>834</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z21" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA21" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB21" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="34" hidden="1">
+      <c r="A22" s="73" t="s">
+        <v>835</v>
+      </c>
+      <c r="U22" s="30" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" s="129" customFormat="1" ht="17">
-      <c r="A17" s="133" t="s">
-        <v>818</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>819</v>
-      </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="R17" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-    </row>
-    <row r="18" spans="1:22" s="108" customFormat="1" ht="31" customHeight="1">
-      <c r="A18" s="112" t="s">
-        <v>820</v>
-      </c>
-      <c r="B18" s="108" t="s">
-        <v>819</v>
-      </c>
-      <c r="S18" s="144"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="30"/>
-    </row>
-    <row r="19" spans="1:22" ht="68">
-      <c r="N19" s="30" t="s">
+      <c r="Z22" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA22" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="34" hidden="1">
+      <c r="A23" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z23" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA23" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="34" hidden="1">
+      <c r="A24" s="73" t="s">
+        <v>836</v>
+      </c>
+      <c r="U24" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z24" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="68" hidden="1">
+      <c r="A25" s="73" t="s">
+        <v>837</v>
+      </c>
+      <c r="O25" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="O19" s="30">
-        <f>SUM(O2:O18)</f>
-        <v>10300</v>
-      </c>
-      <c r="P19" s="30">
-        <f>SUM(P2:P18)</f>
-        <v>3583.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="17">
-      <c r="N20" s="30" t="s">
+      <c r="P25" s="30">
+        <f>SUM(P2:P20)</f>
+        <v>14500</v>
+      </c>
+      <c r="Q25" s="30">
+        <f>SUM(Q2:Q20)</f>
+        <v>5628.9</v>
+      </c>
+      <c r="U25" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z25" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB25" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="17" hidden="1">
+      <c r="A26" s="57" t="s">
+        <v>822</v>
+      </c>
+      <c r="O26" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="O20" s="30">
-        <f>O19/1000</f>
-        <v>10.3</v>
-      </c>
-      <c r="P20" s="30">
-        <f>P19/1000</f>
-        <v>3.5839000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="17">
-      <c r="N21" s="30" t="s">
+      <c r="P26" s="30">
+        <f>P25/1000</f>
+        <v>14.5</v>
+      </c>
+      <c r="Q26" s="30">
+        <f>Q25/1000</f>
+        <v>5.6288999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="68" hidden="1">
+      <c r="A27" s="57" t="s">
+        <v>823</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>825</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="30">
+        <v>2010</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="I27" s="30">
+        <v>2010</v>
+      </c>
+      <c r="O27" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="O21" s="30">
-        <f>O20/1000</f>
-        <v>1.03E-2</v>
-      </c>
-      <c r="P21" s="30">
-        <f>P20/1000</f>
-        <v>3.5839000000000001E-3</v>
+      <c r="P27" s="30">
+        <f>P26/1000</f>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="Q27" s="30">
+        <f>Q26/1000</f>
+        <v>5.6289E-3</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="51" hidden="1">
+      <c r="A28" s="57" t="s">
+        <v>828</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>825</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1:R1048576 S2:S15 R16:S18">
-    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="IDK">
-      <formula>NOT(ISERROR(SEARCH("IDK",R1)))</formula>
+  <autoFilter ref="A1:AB28" xr:uid="{CDA52767-3781-3640-B733-000294CBB1C7}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="m"/>
+        <filter val="y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="S1:S4 T2:U4 S5:U20 S21:S1048576 S22:U24">
+    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",R1)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",S1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="22" operator="beginsWith" text="Y">
-      <formula>LEFT(R1,LEN("Y"))="Y"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:U20 S1:S4 T2:U4 S21:S1048576 S22:U24">
+    <cfRule type="cellIs" dxfId="25" priority="50" operator="equal">
+      <formula>"""Y"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+    <cfRule type="beginsWith" dxfId="24" priority="49" operator="beginsWith" text="Y">
+      <formula>LEFT(S1,LEN("Y"))="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21:U21">
+    <cfRule type="endsWith" dxfId="23" priority="1" operator="endsWith" text="m">
+      <formula>RIGHT(S21,LEN("m"))="m"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="22" priority="2" operator="endsWith" text="N">
+      <formula>RIGHT(S21,LEN("N"))="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:X20 S22:X1048576">
+    <cfRule type="endsWith" dxfId="21" priority="28" operator="endsWith" text="N">
+      <formula>RIGHT(S1,LEN("N"))="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:X19">
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="?">
+      <formula>NOT(ISERROR(SEARCH("?",S19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:X1048576 S1:X20">
+    <cfRule type="endsWith" dxfId="19" priority="27" operator="endsWith" text="m">
+      <formula>RIGHT(S1,LEN("m"))="m"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:U21">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"""Y"""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",T21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",T21)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="5" operator="beginsWith" text="Y">
+      <formula>LEFT(T21,LEN("Y"))="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="beginsWith" dxfId="14" priority="19" operator="beginsWith" text="Y">
+      <formula>LEFT(U25,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",U25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",U25)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>"""Y"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:S12">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",S11)))</formula>
+  <conditionalFormatting sqref="U27:U28">
+    <cfRule type="beginsWith" dxfId="10" priority="11" operator="beginsWith" text="Y">
+      <formula>LEFT(U27,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",U27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"""Y"""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",U27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:V13">
-    <cfRule type="containsText" dxfId="8" priority="20" operator="containsText" text="?">
-      <formula>NOT(ISERROR(SEARCH("?",R13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="beginsWith" dxfId="7" priority="12" stopIfTrue="1" operator="beginsWith" text="~">
-      <formula>LEFT(T1,LEN("~"))="~"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="IDK">
-      <formula>NOT(ISERROR(SEARCH("IDK",T1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",T1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="16" operator="beginsWith" text="Y">
-      <formula>LEFT(T1,LEN("Y"))="Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+  <conditionalFormatting sqref="V1:X20 V22:X1048576">
+    <cfRule type="cellIs" dxfId="6" priority="44" operator="equal">
       <formula>"""Y"""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:V1048576">
-    <cfRule type="endsWith" dxfId="2" priority="1" operator="endsWith" text="N">
-      <formula>RIGHT(R1,LEN("N"))="N"</formula>
+    <cfRule type="beginsWith" dxfId="5" priority="43" operator="beginsWith" text="Y">
+      <formula>LEFT(V1,LEN("Y"))="Y"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="40" operator="containsText" text="IDK">
+      <formula>NOT(ISERROR(SEARCH("IDK",V1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="39" stopIfTrue="1" operator="beginsWith" text="~">
+      <formula>LEFT(V1,LEN("~"))="~"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="41" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{D838A66A-773F-A84F-A108-F2BCAE1EDC84}"/>
     <hyperlink ref="C2" r:id="rId2" display="Website" xr:uid="{3B83002B-7395-D844-B3CF-F7B6A4E14AE1}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{33E2B2F5-35E5-DA40-9360-037E1C12684E}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{0BEEF19B-70A1-E54F-8EC0-F9AD775C8A98}"/>
-    <hyperlink ref="D14" r:id="rId5" xr:uid="{206CB4E4-0AC0-344E-B403-B83F4CA4FD8C}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{C3BE2346-AEB9-4341-8AE3-23CCD356B977}"/>
-    <hyperlink ref="D2" r:id="rId7" display="Data landing" xr:uid="{D005C1AB-32AD-7C4D-A453-F9BA3B303E40}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{EA13324E-C834-8546-8E15-3BF3938CCC72}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{18986E79-78E9-464A-96E0-A978D8F1921B}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{5D6AF5CC-3086-B04F-B46B-2CD813BA9FE3}"/>
-    <hyperlink ref="D9" r:id="rId11" xr:uid="{E8DE5419-1131-C64F-99CF-94D2B72DCCF4}"/>
-    <hyperlink ref="D3" r:id="rId12" xr:uid="{44A672CC-5A5C-1647-B549-C23AEB87A88D}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{80FABD7E-2E00-674F-AE87-EDEB01F5FF2A}"/>
-    <hyperlink ref="D7" r:id="rId14" xr:uid="{B4C980E8-B2EB-6841-81CF-77758BBEE649}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{4F219EDC-E3EF-4242-BD7D-0161BFFD7E3E}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{11710965-652A-7245-A6D5-4ED55F274A73}"/>
-    <hyperlink ref="D13" r:id="rId17" xr:uid="{C37C30E2-5CE9-B740-BC01-4A382D3C4049}"/>
-    <hyperlink ref="C13" r:id="rId18" xr:uid="{64D81143-A61E-CC4F-98F8-8E0588AD16A6}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{33E2B2F5-35E5-DA40-9360-037E1C12684E}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{0BEEF19B-70A1-E54F-8EC0-F9AD775C8A98}"/>
+    <hyperlink ref="D2" r:id="rId5" display="Data landing" xr:uid="{D005C1AB-32AD-7C4D-A453-F9BA3B303E40}"/>
+    <hyperlink ref="D18" r:id="rId6" xr:uid="{EA13324E-C834-8546-8E15-3BF3938CCC72}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{18986E79-78E9-464A-96E0-A978D8F1921B}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{5D6AF5CC-3086-B04F-B46B-2CD813BA9FE3}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{E8DE5419-1131-C64F-99CF-94D2B72DCCF4}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{44A672CC-5A5C-1647-B549-C23AEB87A88D}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{80FABD7E-2E00-674F-AE87-EDEB01F5FF2A}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{4F219EDC-E3EF-4242-BD7D-0161BFFD7E3E}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{11710965-652A-7245-A6D5-4ED55F274A73}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{C37C30E2-5CE9-B740-BC01-4A382D3C4049}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{64D81143-A61E-CC4F-98F8-8E0588AD16A6}"/>
+    <hyperlink ref="D27" r:id="rId16" xr:uid="{545BABF3-5135-574C-9023-0FEBD0B2A583}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{69C31F2F-F9F4-1540-AD50-C53225EEC7CE}"/>
+    <hyperlink ref="D11" r:id="rId18" xr:uid="{1A29EA1F-7E23-B74E-8CF6-530D50EB45E2}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{5D047870-F540-BF43-8FD8-16C0B68B81FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB473F-DD7E-B549-8DD0-A9AC55F34578}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79CFCD0-E7D4-E94B-B72C-B414C98A6A48}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="85">
+      <c r="A2" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="68">
+      <c r="A3" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="E3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
+      <c r="A4" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="B4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="68">
+      <c r="A5" s="129" t="s">
+        <v>843</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>853</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>854</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC0E30-B0D7-8243-ADF9-8206900A5FBD}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
@@ -15870,7 +17003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B77F70-8FD0-AB40-B47B-400E44CAD894}">
   <dimension ref="A1:E70"/>
   <sheetViews>
@@ -17254,208 +18387,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E090B32D-70A5-2149-A1B7-65E5987A0F9B}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H1" s="143" t="s">
-        <v>575</v>
-      </c>
-      <c r="I1" s="143"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" t="str">
-        <f>B2&amp;".map"</f>
-        <v>bdod.map</v>
-      </c>
-      <c r="E2" t="str">
-        <f>"https://maps.isric.org/mapserv?map=/map/"&amp;D2</f>
-        <v>https://maps.isric.org/mapserv?map=/map/bdod.map</v>
-      </c>
-      <c r="H2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D6" si="0">B3&amp;".map"</f>
-        <v>soc.map</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E6" si="1">"https://maps.isric.org/mapserv?map=/map/"&amp;D3</f>
-        <v>https://maps.isric.org/mapserv?map=/map/soc.map</v>
-      </c>
-      <c r="H3" t="s">
-        <v>578</v>
-      </c>
-      <c r="I3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>563</v>
-      </c>
-      <c r="B4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>ocs.map</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>https://maps.isric.org/mapserv?map=/map/ocs.map</v>
-      </c>
-      <c r="H4" t="s">
-        <v>578</v>
-      </c>
-      <c r="I4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B5" t="s">
-        <v>569</v>
-      </c>
-      <c r="C5" t="s">
-        <v>571</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>ocd.map</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://maps.isric.org/mapserv?map=/map/ocd.map</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" t="s">
-        <v>573</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>nitrogen.map</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>https://maps.isric.org/mapserv?map=/map/nitrogen.map</v>
-      </c>
-      <c r="H6" s="118" t="s">
-        <v>580</v>
-      </c>
-      <c r="I6" s="119" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="H7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="H8" t="s">
-        <v>579</v>
-      </c>
-      <c r="I8" s="119" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17">
-      <c r="J15" s="113"/>
-      <c r="K15" s="117"/>
-    </row>
-    <row r="17" spans="10:10" ht="17">
-      <c r="J17" s="114"/>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="116"/>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" s="116"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Environmental_datasets/Environmental databases.xlsx
+++ b/Environmental_datasets/Environmental databases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmersonEmmerson/Documents/Master's/C_forecasting_NL/Environmental_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D554514-687D-544F-A389-A6834DF1F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B581D-3843-974D-A485-66FD6A828631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" activeTab="4" xr2:uid="{9EEE58CE-D387-B14C-ABB0-8398CF6D0276}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" activeTab="3" xr2:uid="{9EEE58CE-D387-B14C-ABB0-8398CF6D0276}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="1" r:id="rId1"/>
@@ -4366,9 +4366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4406,7 +4406,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4512,7 +4512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4654,7 +4654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4749,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCEAFAD-3713-EF4E-AB7A-ABE53C4DA4AA}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="125" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5510,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1194E792-5E87-AD45-9D02-CDD373EDE6D4}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5999,9 +5999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5651BE44-E033-A741-8310-2B47115ACEA4}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7718,7 +7718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F487AF0-5C57-A443-979D-79FDCB7DF6BB}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -9150,15 +9150,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="30" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="30" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="30" customWidth="1"/>
     <col min="6" max="10" width="10.83203125" style="30" customWidth="1"/>
     <col min="11" max="11" width="48.5" style="30" customWidth="1"/>
